--- a/REVER_DailyTracker_20200717.xlsx
+++ b/REVER_DailyTracker_20200717.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E32A9B-3C93-4AF3-BB14-1D371F50D2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E9268C-972D-4A88-BBF5-F79274C53F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="85">
   <si>
     <t>Task</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>2. Storing pwd at database is work in progress</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>creditinfo changes</t>
   </si>
 </sst>
 </file>
@@ -796,7 +802,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
@@ -1744,8 +1750,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1785,9 +1791,15 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.4</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
